--- a/modelagem1.xlsx
+++ b/modelagem1.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Facul_dados\MODELAGEM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VDIMAS\Documents\Proj_Git\modelagem_de_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97005CA-EA02-4B9F-9E16-94F8D1540F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E341E918-7385-4B6D-91FF-E11DF65527D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="255" windowWidth="21600" windowHeight="11505" xr2:uid="{580FD6DA-F76D-4064-BFC7-68C9D74707D7}"/>
+    <workbookView xWindow="2130" yWindow="255" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{580FD6DA-F76D-4064-BFC7-68C9D74707D7}"/>
   </bookViews>
   <sheets>
     <sheet name="EX01 - SIP" sheetId="1" r:id="rId1"/>
     <sheet name="EX02 - SPV" sheetId="2" r:id="rId2"/>
     <sheet name="EX03 - SCA" sheetId="3" r:id="rId3"/>
-    <sheet name="EX04 - SSM" sheetId="4" r:id="rId4"/>
+    <sheet name="testee" sheetId="5" r:id="rId4"/>
+    <sheet name="EX04 - SSM" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1117,60 +1118,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1208,41 +1155,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1272,6 +1240,39 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1588,7 +1589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFDF4ED-7358-45BF-9755-EA0EFAEF03C5}">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -1605,14 +1606,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1627,18 +1628,18 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="66"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="23" t="s">
         <v>23</v>
       </c>
@@ -1716,7 +1717,7 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="61" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1736,7 +1737,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
@@ -1754,7 +1755,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
@@ -1772,7 +1773,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="61" t="s">
         <v>95</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1792,7 +1793,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
@@ -1810,7 +1811,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1828,7 +1829,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
@@ -1846,7 +1847,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1865,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
@@ -1882,7 +1883,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="70" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -1902,7 +1903,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="12" t="s">
         <v>14</v>
       </c>
@@ -1920,7 +1921,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="12" t="s">
         <v>108</v>
       </c>
@@ -1938,7 +1939,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="14" t="s">
         <v>109</v>
       </c>
@@ -1956,7 +1957,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="64" t="s">
         <v>97</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -1976,7 +1977,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="12" t="s">
         <v>10</v>
       </c>
@@ -1994,7 +1995,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="12" t="s">
         <v>15</v>
       </c>
@@ -2012,7 +2013,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="14" t="s">
         <v>16</v>
       </c>
@@ -2030,7 +2031,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="64" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -2050,7 +2051,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="13" t="s">
         <v>17</v>
       </c>
@@ -2066,7 +2067,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="13" t="s">
         <v>18</v>
       </c>
@@ -2076,7 +2077,7 @@
       <c r="F29" s="32"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="12" t="s">
         <v>19</v>
       </c>
@@ -2094,7 +2095,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
@@ -2148,14 +2149,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -2170,18 +2171,18 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="66"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="23" t="s">
         <v>23</v>
       </c>
@@ -2249,7 +2250,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="76" t="s">
         <v>100</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -2269,7 +2270,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="26" t="s">
         <v>10</v>
       </c>
@@ -2287,7 +2288,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="26" t="s">
         <v>74</v>
       </c>
@@ -2305,7 +2306,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="26" t="s">
         <v>26</v>
       </c>
@@ -2323,7 +2324,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="26" t="s">
         <v>7</v>
       </c>
@@ -2341,7 +2342,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="26" t="s">
         <v>27</v>
       </c>
@@ -2359,7 +2360,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="26" t="s">
         <v>28</v>
       </c>
@@ -2377,7 +2378,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="26" t="s">
         <v>29</v>
       </c>
@@ -2395,7 +2396,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="26" t="s">
         <v>30</v>
       </c>
@@ -2413,7 +2414,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="73" t="s">
         <v>83</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -2433,7 +2434,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
@@ -2451,7 +2452,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="12" t="s">
         <v>32</v>
       </c>
@@ -2469,7 +2470,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -2487,7 +2488,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="14" t="s">
         <v>75</v>
       </c>
@@ -2505,7 +2506,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="61" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -2525,7 +2526,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="12" t="s">
         <v>39</v>
       </c>
@@ -2543,7 +2544,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="14" t="s">
         <v>40</v>
       </c>
@@ -2561,7 +2562,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="68" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -2581,7 +2582,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="25" t="s">
         <v>33</v>
       </c>
@@ -2599,7 +2600,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="12" t="s">
         <v>34</v>
       </c>
@@ -2617,7 +2618,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="14" t="s">
         <v>101</v>
       </c>
@@ -2635,7 +2636,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="73" t="s">
         <v>86</v>
       </c>
       <c r="B31" s="28" t="s">
@@ -2655,7 +2656,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="27" t="s">
         <v>35</v>
       </c>
@@ -2673,7 +2674,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="27" t="s">
         <v>37</v>
       </c>
@@ -2691,7 +2692,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="27" t="s">
         <v>36</v>
       </c>
@@ -2709,7 +2710,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
+      <c r="A35" s="75"/>
       <c r="B35" s="29" t="s">
         <v>42</v>
       </c>
@@ -2727,7 +2728,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="61" t="s">
         <v>87</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2747,7 +2748,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="27" t="s">
         <v>82</v>
       </c>
@@ -2765,7 +2766,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="27" t="s">
         <v>43</v>
       </c>
@@ -2783,7 +2784,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="27" t="s">
         <v>81</v>
       </c>
@@ -2801,7 +2802,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="29" t="s">
         <v>44</v>
       </c>
@@ -2855,241 +2856,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="82" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="67" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="91"/>
-      <c r="H6" s="81"/>
-    </row>
-    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="70" t="s">
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="71" t="s">
+      <c r="A8" s="82"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="72" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="54" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="72" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="83"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="54" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="72" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="83"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="54" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="95"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="73" t="s">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="84"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="55" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="A8:A12"/>
@@ -3099,11 +3105,6 @@
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G8:G12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
@@ -3115,6 +3116,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF0A822-A1A7-4DD7-A6AE-FE8347CB4B86}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0692C44A-F742-4213-96E6-890E95C85735}">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -3133,211 +3146,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="82" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="67" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="91"/>
-      <c r="H6" s="81"/>
-    </row>
-    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="70" t="s">
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="71" t="s">
+      <c r="A8" s="82"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="72" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="54" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="72" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="83"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="54" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="72" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="83"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="54" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="95"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="73" t="s">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="84"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="55" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="A8:A12"/>
@@ -3347,11 +3365,6 @@
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G8:G12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
